--- a/data/trans_dic/P13A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P13A_R-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,31</t>
+          <t>0,99; 3,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,78; 9,19</t>
+          <t>4,88; 9,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,68</t>
+          <t>3,6; 6,63</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,89</t>
+          <t>0,75; 1,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,15; 4,82</t>
+          <t>3,18; 4,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 3,18</t>
+          <t>2,17; 3,19</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,22</t>
+          <t>0,0; 1,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,64</t>
+          <t>2,41; 5,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,99</t>
+          <t>1,4; 3,05</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,57</t>
+          <t>0,81; 1,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 5,34</t>
+          <t>3,81; 5,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,31</t>
+          <t>2,49; 3,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P13A_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,08</t>
+          <t>1,06; 3,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,88; 9,47</t>
+          <t>4,78; 9,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,6; 6,63</t>
+          <t>3,62; 6,68</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 1,79</t>
+          <t>0,77; 1,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 4,86</t>
+          <t>3,15; 4,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 3,19</t>
+          <t>2,18; 3,18</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,2</t>
+          <t>0,0; 1,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,42</t>
+          <t>2,47; 5,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,05</t>
+          <t>1,36; 2,99</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 1,57</t>
+          <t>0,8; 1,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 5,26</t>
+          <t>3,81; 5,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 3,37</t>
+          <t>2,52; 3,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P13A_R-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,4%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,31</t>
+          <t>1,08; 3,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,78; 9,19</t>
+          <t>4,69; 8,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,68</t>
+          <t>3,49; 5,98</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,38%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,89</t>
+          <t>0,67; 1,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,15; 4,82</t>
+          <t>2,63; 4,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 3,18</t>
+          <t>1,87; 2,93</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>1,98%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,22</t>
+          <t>0,0; 1,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,64</t>
+          <t>2,45; 5,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,99</t>
+          <t>1,33; 2,88</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,66%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,57</t>
+          <t>0,71; 1,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 5,34</t>
+          <t>3,35; 4,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,31</t>
+          <t>2,2; 3,08</t>
         </is>
       </c>
     </row>
